--- a/data/trans_dic/P14B23_2016_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P14B23_2016_2023-Habitat-trans_dic.xlsx
@@ -618,13 +618,13 @@
         <v>0.04880886931460709</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.04951139332864049</v>
+        <v>0.04951139332864048</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.03116380440292338</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.0475290592678525</v>
+        <v>0.04752905926785248</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.006645163686388305</v>
+        <v>0.006983287652284579</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03254634039944796</v>
+        <v>0.03051961163276749</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03461131167803365</v>
+        <v>0.03425531049292929</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03892121848513367</v>
+        <v>0.03835084851928029</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02302805842872147</v>
+        <v>0.02254235483617759</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03796166482284657</v>
+        <v>0.03804339440688224</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02572789950769687</v>
+        <v>0.02587146798188409</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06512670259620632</v>
+        <v>0.06572729869528679</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06867675324544362</v>
+        <v>0.06711776267845358</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.06275636288436354</v>
+        <v>0.06281883325632452</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04238661386035553</v>
+        <v>0.04144161440866252</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05904923085839417</v>
+        <v>0.05887439032649909</v>
       </c>
     </row>
     <row r="7">
@@ -706,7 +706,7 @@
         <v>0.02595702779409514</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.03821247912371702</v>
+        <v>0.03821247912371703</v>
       </c>
     </row>
     <row r="8">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.004264872082077167</v>
+        <v>0.004174379158978664</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01305170857972504</v>
+        <v>0.01302406970930215</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03058992105091075</v>
+        <v>0.03163714609909665</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.044485588431706</v>
+        <v>0.0453485851124256</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01950079139733358</v>
+        <v>0.0193744705026303</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.0309976653587632</v>
+        <v>0.03121130316203883</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01613766930135316</v>
+        <v>0.01606989006317578</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03197324114639537</v>
+        <v>0.03109043447862299</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05688660163572482</v>
+        <v>0.05861029242217757</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06710403336953297</v>
+        <v>0.06748383341033837</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.0339213657878466</v>
+        <v>0.03362401843467163</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.04489116454325169</v>
+        <v>0.045957282871493</v>
       </c>
     </row>
     <row r="10">
@@ -776,13 +776,13 @@
         <v>0.01577807591502183</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.02952734597601688</v>
+        <v>0.02952734597601689</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.03526734295820538</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.06719468822950746</v>
+        <v>0.06719468822950747</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.02568332769167286</v>
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.008498992351690505</v>
+        <v>0.008149371759437574</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01805846710639301</v>
+        <v>0.01753430363343196</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02402475709652737</v>
+        <v>0.02309772911154797</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05236238535275612</v>
+        <v>0.05193708393626133</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01867890967130926</v>
+        <v>0.01817650383443982</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03956601145476944</v>
+        <v>0.0389748528900817</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02867349408207089</v>
+        <v>0.02708136891592959</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04823973677787748</v>
+        <v>0.04808204913830383</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05099644841316096</v>
+        <v>0.05102677614912283</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.08498481188612846</v>
+        <v>0.08421219883426037</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03564873495750672</v>
+        <v>0.03548407038062665</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.0609734745659689</v>
+        <v>0.06091324328614393</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>0.04791979007641239</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.06413661746137868</v>
+        <v>0.06413661746137869</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.03342291298364106</v>
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01013208054281873</v>
+        <v>0.01096351640941694</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03044061566009946</v>
+        <v>0.02997434768207302</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03498390398727763</v>
+        <v>0.03494161364264255</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05239508711244058</v>
+        <v>0.05227700120665187</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02562868758383995</v>
+        <v>0.02627947316617888</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04478589767362358</v>
+        <v>0.04512711399586337</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02700838952033323</v>
+        <v>0.02744844742577975</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05614279364822378</v>
+        <v>0.05457091879759041</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.06348502899169726</v>
+        <v>0.06427426904321565</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.07665831752625271</v>
+        <v>0.07717907776805048</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04231918775636227</v>
+        <v>0.04202852340337604</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.06300807440633241</v>
+        <v>0.06281319436554293</v>
       </c>
     </row>
     <row r="16">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.009904635097619702</v>
+        <v>0.0099728982461705</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02726626269664177</v>
+        <v>0.02730078498706004</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03650957297871499</v>
+        <v>0.0371807017936138</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05330342144651642</v>
+        <v>0.05337959054315472</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02518384634110131</v>
+        <v>0.0251798306923334</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.04233742535129774</v>
+        <v>0.04242418755509265</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01793813577392668</v>
+        <v>0.01792978533274283</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04043864925439259</v>
+        <v>0.03995448698142614</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.05146248341927408</v>
+        <v>0.05060769278017249</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.06605448280872191</v>
+        <v>0.06585047341076429</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.03320939766737747</v>
+        <v>0.03340262859577721</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.05163180071213061</v>
+        <v>0.0511115075284987</v>
       </c>
     </row>
     <row r="19">
@@ -1191,22 +1191,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>4484</v>
+        <v>4712</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>22456</v>
+        <v>21058</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>23254</v>
+        <v>23015</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>28518</v>
+        <v>28101</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>31011</v>
+        <v>30357</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>54008</v>
+        <v>54124</v>
       </c>
     </row>
     <row r="7">
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>17361</v>
+        <v>17458</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>44935</v>
+        <v>45350</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>46141</v>
+        <v>45094</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>45983</v>
+        <v>46029</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>57080</v>
+        <v>55808</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>84009</v>
+        <v>83760</v>
       </c>
     </row>
     <row r="8">
@@ -1299,22 +1299,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>4361</v>
+        <v>4268</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>13690</v>
+        <v>13661</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>31903</v>
+        <v>32995</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>47512</v>
+        <v>48434</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>40276</v>
+        <v>40015</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>65621</v>
+        <v>66073</v>
       </c>
     </row>
     <row r="11">
@@ -1325,22 +1325,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>16500</v>
+        <v>16430</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>33537</v>
+        <v>32611</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>59328</v>
+        <v>61125</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>71670</v>
+        <v>72075</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>70059</v>
+        <v>69445</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>95033</v>
+        <v>97290</v>
       </c>
     </row>
     <row r="12">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>6455</v>
+        <v>6190</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>14431</v>
+        <v>14012</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>18860</v>
+        <v>18132</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>42495</v>
+        <v>42150</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>28851</v>
+        <v>28075</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>63728</v>
+        <v>62775</v>
       </c>
     </row>
     <row r="15">
@@ -1433,22 +1433,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>21779</v>
+        <v>20570</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>38549</v>
+        <v>38423</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>40033</v>
+        <v>40057</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>68969</v>
+        <v>68342</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>55062</v>
+        <v>54807</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>98208</v>
+        <v>98111</v>
       </c>
     </row>
     <row r="16">
@@ -1515,22 +1515,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>9500</v>
+        <v>10279</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>30120</v>
+        <v>29659</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>36515</v>
+        <v>36471</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>58559</v>
+        <v>58427</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>50779</v>
+        <v>52069</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>94369</v>
+        <v>95088</v>
       </c>
     </row>
     <row r="19">
@@ -1541,22 +1541,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>25322</v>
+        <v>25735</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>55552</v>
+        <v>53997</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>66264</v>
+        <v>67088</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>85676</v>
+        <v>86258</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>83849</v>
+        <v>83273</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>132765</v>
+        <v>132355</v>
       </c>
     </row>
     <row r="20">
@@ -1623,22 +1623,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>33620</v>
+        <v>33852</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>96181</v>
+        <v>96303</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>129374</v>
+        <v>131752</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>198819</v>
+        <v>199103</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>174723</v>
+        <v>174696</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>307261</v>
+        <v>307890</v>
       </c>
     </row>
     <row r="23">
@@ -1649,22 +1649,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>60888</v>
+        <v>60860</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>142647</v>
+        <v>140939</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>182361</v>
+        <v>179332</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>246380</v>
+        <v>245619</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>230404</v>
+        <v>231745</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>374714</v>
+        <v>370938</v>
       </c>
     </row>
     <row r="24">
